--- a/RUDN/Importance/Varible_f_reg_in_Eastern Europe.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Eastern Europe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
   <si>
     <t>F-value</t>
   </si>
@@ -22,85 +22,280 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
     <t>Population, female (% of total)</t>
   </si>
   <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>GDP per capita (Current US$)</t>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
-    <t>Agricultural support estimate (% of GDP)</t>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (constant 2015 US$)</t>
   </si>
   <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
   </si>
   <si>
     <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
   </si>
   <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
@@ -109,70 +304,55 @@
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
     <t>Total debt service (% of exports of goods, services and primary income)</t>
   </si>
   <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
-    <t>Net ODA provided, total (constant 2015 US$)</t>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
     <t>Female population 15-19</t>
   </si>
   <si>
     <t>Male population 15-19</t>
   </si>
   <si>
-    <t>Net ODA provided, total (current US$)</t>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 18, female, interpolated</t>
@@ -181,13 +361,22 @@
     <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 19, female, interpolated</t>
@@ -196,604 +385,631 @@
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
   </si>
   <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
     <t>Male population 25-29</t>
   </si>
   <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Female population 30-34</t>
   </si>
   <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Poverty gap at national poverty lines (%)</t>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 01, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
     <t>Male population 00-04</t>
   </si>
   <si>
     <t>Female population 00-04</t>
   </si>
   <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 05, male, interpolated</t>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
   </si>
   <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
+    <t>Population ages 55-59, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
+    <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
     <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
+    <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
     <t>Male population 60-64</t>
   </si>
   <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
     <t>Years</t>
   </si>
   <si>
-    <t>Children (0-14) living with HIV</t>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
   </si>
   <si>
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
     <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
   </si>
   <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
     <t>Age dependency ratio (% of working-age population)</t>
@@ -805,151 +1021,70 @@
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C311"/>
+  <dimension ref="A1:C356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1326,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>276.9487618739328</v>
+        <v>2672.749983360743</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1337,7 +1472,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>155.656298370649</v>
+        <v>1851.914884403959</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1348,7 +1483,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>155.6562983706381</v>
+        <v>1598.232558973546</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1359,7 +1494,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>140.2493475284862</v>
+        <v>1413.810013542195</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1370,7 +1505,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>131.552503284</v>
+        <v>582.8636700483038</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1381,7 +1516,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>117.0313417066072</v>
+        <v>417.2307752768041</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1392,7 +1527,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>116.4676864336522</v>
+        <v>417.2307752768041</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1403,7 +1538,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>114.3431288387117</v>
+        <v>406.1867324230446</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1414,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>109.0730932119914</v>
+        <v>281.4005846146983</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1425,7 +1560,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>101.444650462938</v>
+        <v>185.8889809730546</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1436,7 +1571,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>97.63477669855946</v>
+        <v>184.130708825239</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1447,7 +1582,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>95.44156792987313</v>
+        <v>182.2493327595021</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1458,7 +1593,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>95.38251775867666</v>
+        <v>181.8328575008023</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1469,7 +1604,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>90.78098676252247</v>
+        <v>181.8053167749359</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1480,7 +1615,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>90.75420954081994</v>
+        <v>181.5727789071042</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1491,7 +1626,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>90.61825118319783</v>
+        <v>181.4978867439976</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1502,7 +1637,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>90.58891226014816</v>
+        <v>181.1141639516604</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1513,7 +1648,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>90.43757615687852</v>
+        <v>180.726197865146</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1524,7 +1659,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>90.27070827790281</v>
+        <v>180.605409074127</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1535,7 +1670,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>90.04592209102144</v>
+        <v>180.3339316527231</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1546,7 +1681,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>89.86853191216589</v>
+        <v>180.2870067458657</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1557,7 +1692,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>89.82121088764038</v>
+        <v>180.2695368406341</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1568,7 +1703,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>89.7552507804584</v>
+        <v>180.1365853289738</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1579,7 +1714,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>89.4986436599016</v>
+        <v>180.0520351520155</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1590,7 +1725,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>89.21942296148902</v>
+        <v>180.0077676542442</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1601,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>89.18504055873029</v>
+        <v>179.8470115146664</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1612,7 +1747,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>87.79003377830756</v>
+        <v>179.7886844683149</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1623,7 +1758,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>87.47411298241927</v>
+        <v>179.4949974892952</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1634,7 +1769,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>87.47411298241927</v>
+        <v>179.0062003062082</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1645,7 +1780,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>87.05535029058933</v>
+        <v>178.8622414538546</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1656,7 +1791,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>86.48147769989384</v>
+        <v>178.6903027290751</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1667,7 +1802,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>86.25243706742818</v>
+        <v>178.5657935659741</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1678,7 +1813,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>85.30072277514557</v>
+        <v>177.9561392230929</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1689,7 +1824,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>85.24439487725425</v>
+        <v>177.1912433896461</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1700,7 +1835,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>85.03647569919501</v>
+        <v>177.0930712613631</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1711,7 +1846,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>84.31114711006678</v>
+        <v>176.6869943323524</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1722,7 +1857,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>83.92731723135687</v>
+        <v>156.8143059082515</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1733,7 +1868,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>82.94298090034256</v>
+        <v>151.0878634420297</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1744,7 +1879,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>75.85525339328134</v>
+        <v>151.0878634419477</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1755,7 +1890,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>74.78150482407185</v>
+        <v>131.9134461038416</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1766,7 +1901,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>74.77976255545106</v>
+        <v>121.0527148841922</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1777,7 +1912,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>74.50114498155793</v>
+        <v>121.0527148841922</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1788,7 +1923,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>70.3862397044394</v>
+        <v>119.4487604325986</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1799,7 +1934,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>69.2906321695865</v>
+        <v>118.7828174956899</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1810,7 +1945,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>68.00542239641607</v>
+        <v>106.4732564430546</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1821,7 +1956,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>67.95681996127956</v>
+        <v>105.2319790071723</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1832,7 +1967,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>67.93866680894095</v>
+        <v>105.229159041157</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1843,7 +1978,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>67.9178375107294</v>
+        <v>104.6086708402786</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1854,7 +1989,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>67.87613771785946</v>
+        <v>104.5919928343085</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1865,7 +2000,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>67.78312196273683</v>
+        <v>100.6476748907319</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1876,7 +2011,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>67.55949232617249</v>
+        <v>100.0576717261424</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1887,7 +2022,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>67.04330815153725</v>
+        <v>99.77664656478912</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1898,7 +2033,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>66.93561260706103</v>
+        <v>99.74690597623464</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1909,7 +2044,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>66.80019567027074</v>
+        <v>99.51088960929538</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1920,7 +2055,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>66.76936832203215</v>
+        <v>99.45413635595641</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1931,7 +2066,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>65.51130025525016</v>
+        <v>99.10588667183131</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1942,7 +2077,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>65.33554788710535</v>
+        <v>98.09791802189253</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1953,7 +2088,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>65.18033407364436</v>
+        <v>97.93250729102989</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1964,7 +2099,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>64.64489719686948</v>
+        <v>97.93002974732612</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1975,7 +2110,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>64.61111662717323</v>
+        <v>97.74997404911196</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1986,7 +2121,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>63.64835999591742</v>
+        <v>97.70148377453228</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1997,7 +2132,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>63.42057939076284</v>
+        <v>97.34143518434809</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2008,7 +2143,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>63.11988561007925</v>
+        <v>97.14637924752714</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2019,7 +2154,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>62.90512088045038</v>
+        <v>97.12228702446976</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2030,7 +2165,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>62.73049477229898</v>
+        <v>96.97558337362628</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2041,7 +2176,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>61.55731669699419</v>
+        <v>96.87712867970379</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2052,7 +2187,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>61.52666049317885</v>
+        <v>95.79037779905066</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2063,7 +2198,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>60.92832937560672</v>
+        <v>95.44100715874633</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2074,7 +2209,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>60.744534282429</v>
+        <v>94.98131091249776</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2085,7 +2220,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>60.58260217642779</v>
+        <v>94.62102243250546</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2096,7 +2231,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>60.28293961373993</v>
+        <v>91.32331454098129</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2107,7 +2242,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>59.4689987640665</v>
+        <v>91.17553758776894</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2118,7 +2253,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>59.09519534794379</v>
+        <v>91.17553758776894</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2129,7 +2264,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>58.79292151141249</v>
+        <v>90.86863572063663</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2140,7 +2275,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>58.77558889921993</v>
+        <v>89.87141711566085</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2151,7 +2286,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>58.38833018678968</v>
+        <v>88.62194560084787</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2162,7 +2297,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>58.28521018193118</v>
+        <v>87.88136450186693</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2173,7 +2308,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>58.03211380063713</v>
+        <v>87.60276297804818</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2184,7 +2319,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>57.98766933558063</v>
+        <v>85.68990906362107</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2195,7 +2330,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>57.94821905283334</v>
+        <v>85.3315863149774</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2206,7 +2341,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>57.91766257549248</v>
+        <v>83.96492010092342</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2217,7 +2352,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>57.9086733703457</v>
+        <v>82.33951727497384</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2228,7 +2363,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>57.86978698628313</v>
+        <v>81.9163106721828</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2239,7 +2374,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>57.85966958562862</v>
+        <v>81.70132921472548</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2250,7 +2385,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>57.82888437673442</v>
+        <v>81.50731592281674</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2261,7 +2396,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>57.40704074242166</v>
+        <v>81.32808310534662</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2272,7 +2407,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>57.32516628705415</v>
+        <v>81.01304394786573</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2283,7 +2418,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>57.18175110221748</v>
+        <v>80.55713434097198</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2294,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>57.159102473917</v>
+        <v>80.30382290514183</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2305,7 +2440,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>57.02365424168975</v>
+        <v>80.01823717800279</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2316,7 +2451,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>56.88016363869971</v>
+        <v>78.83207521024273</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2327,7 +2462,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>56.71097639501804</v>
+        <v>78.55261740454937</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2338,7 +2473,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>56.59739060757458</v>
+        <v>77.6218214643586</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2349,7 +2484,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>56.32340993234308</v>
+        <v>77.6218214643586</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2360,7 +2495,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>56.09468467541743</v>
+        <v>76.65373026830471</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2371,7 +2506,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>55.95465330861899</v>
+        <v>76.56560856317267</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2382,7 +2517,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>54.99075672462023</v>
+        <v>74.95912639893636</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2393,7 +2528,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>54.82119779828268</v>
+        <v>74.86646293734147</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2404,7 +2539,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>54.40767793385036</v>
+        <v>73.60237933292336</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2415,7 +2550,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>54.03652035315753</v>
+        <v>73.13259564542811</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2426,7 +2561,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>54.01389040396102</v>
+        <v>69.22195336190759</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2437,7 +2572,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>53.99100347280952</v>
+        <v>66.29106920132618</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2448,7 +2583,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>53.68725298949887</v>
+        <v>65.57789056282832</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2459,7 +2594,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>53.5382852467509</v>
+        <v>64.30101011398077</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2470,7 +2605,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>53.52069482582291</v>
+        <v>64.26544439525777</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2481,7 +2616,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>53.17961993060726</v>
+        <v>64.15379644887223</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2492,7 +2627,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>52.83819923172524</v>
+        <v>64.0882439050537</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2503,7 +2638,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>52.66487520374898</v>
+        <v>64.04558304716775</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2514,7 +2649,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>52.61819884379076</v>
+        <v>63.95552500030335</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2525,7 +2660,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>52.17181793882283</v>
+        <v>63.4172110336161</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2536,7 +2671,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>51.96525430937242</v>
+        <v>63.39072815309428</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2547,7 +2682,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>51.66836950299017</v>
+        <v>63.11737325586491</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2558,7 +2693,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>51.43638467039852</v>
+        <v>63.00930069743378</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2569,7 +2704,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>51.3883983388525</v>
+        <v>62.64081059758846</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2580,7 +2715,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>51.25297303318786</v>
+        <v>62.59529934107365</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2591,7 +2726,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>51.17484349771462</v>
+        <v>62.51406437049563</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2602,7 +2737,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>51.17329472995563</v>
+        <v>62.45519538510195</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2613,7 +2748,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>51.15369437074643</v>
+        <v>61.66043853228786</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2624,7 +2759,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>51.1410064121813</v>
+        <v>61.62895260710109</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2635,7 +2770,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>51.12906702452102</v>
+        <v>61.43520023859664</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2646,7 +2781,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>51.10347561953674</v>
+        <v>61.27949222362894</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2657,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>51.08229066312301</v>
+        <v>60.26780526936962</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2668,7 +2803,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>50.98424494448454</v>
+        <v>59.31101560847184</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2679,7 +2814,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>50.59646049451822</v>
+        <v>59.10033894619046</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2690,7 +2825,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>50.57169147993822</v>
+        <v>59.0916647850061</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2701,7 +2836,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>50.32432102888288</v>
+        <v>59.05692462302257</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2712,7 +2847,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>50.26595563533049</v>
+        <v>58.93640771404808</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2723,7 +2858,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>49.58171387329428</v>
+        <v>57.35106872986918</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2734,7 +2869,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>49.45006752284731</v>
+        <v>57.21035608387226</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2745,7 +2880,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>49.39308792653152</v>
+        <v>56.88364243040764</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2756,7 +2891,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>49.04350289915615</v>
+        <v>56.75395424928085</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2767,7 +2902,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>49.03319902820653</v>
+        <v>56.72386126553091</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2778,7 +2913,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>48.92763983659282</v>
+        <v>56.59684815827609</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2789,7 +2924,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>48.57355816311694</v>
+        <v>56.23842050839138</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2800,7 +2935,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>48.1563217050069</v>
+        <v>56.13411537961974</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2811,7 +2946,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>47.90018655316926</v>
+        <v>55.91310275782141</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2822,7 +2957,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>47.79147496472397</v>
+        <v>55.88925739514262</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2833,7 +2968,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>47.61325336702552</v>
+        <v>55.46735920151244</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2844,7 +2979,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>47.535271399519</v>
+        <v>55.38086178987808</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2855,7 +2990,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>47.51901537139456</v>
+        <v>54.85511449480228</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2866,7 +3001,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>47.5008532329906</v>
+        <v>54.80042544438025</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2877,7 +3012,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>47.09635811795779</v>
+        <v>54.35089928563306</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2888,7 +3023,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>46.96053904223492</v>
+        <v>54.26818432067169</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2899,7 +3034,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>46.87265089092509</v>
+        <v>54.1099229050214</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2910,7 +3045,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>46.85587651483841</v>
+        <v>53.92072446676027</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2921,7 +3056,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>46.69488857834283</v>
+        <v>53.87226613051691</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2932,7 +3067,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>46.57272927062119</v>
+        <v>53.84382392044575</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2943,7 +3078,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>45.92042908405609</v>
+        <v>52.84003155553724</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2954,7 +3089,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>45.4341153789962</v>
+        <v>52.46016987408207</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2965,7 +3100,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>44.22103382299918</v>
+        <v>52.45978585945907</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2976,7 +3111,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>44.01522337333166</v>
+        <v>52.11862700914452</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2987,7 +3122,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>43.96171663378033</v>
+        <v>51.79683809973587</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2998,7 +3133,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>43.908108824484</v>
+        <v>51.58323251266254</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3009,7 +3144,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>43.68842100139905</v>
+        <v>51.18310129950827</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3020,7 +3155,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>43.3856154547172</v>
+        <v>51.04274021279246</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3031,7 +3166,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>43.3544751972864</v>
+        <v>50.78432495345082</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3042,7 +3177,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>43.30148471408918</v>
+        <v>50.67982245196399</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3053,7 +3188,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>43.26324490874777</v>
+        <v>50.47659940670397</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3064,7 +3199,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>43.08124052576746</v>
+        <v>50.3899126011193</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3075,7 +3210,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>43.08124052576746</v>
+        <v>50.12432600637856</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3086,7 +3221,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>42.9633845082795</v>
+        <v>49.69394052530154</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3097,7 +3232,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>42.86302421988884</v>
+        <v>49.55100348999609</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3108,7 +3243,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>42.84491329001133</v>
+        <v>49.17018109868973</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3119,7 +3254,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>42.76072151432924</v>
+        <v>49.11857042769415</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3130,7 +3265,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>42.69647920070216</v>
+        <v>49.08686850379515</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3141,7 +3276,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>42.49104829879583</v>
+        <v>48.94831390466511</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3152,7 +3287,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>42.38565749697508</v>
+        <v>48.80417912422131</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3163,7 +3298,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>42.38136536936917</v>
+        <v>48.5035986527417</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3174,7 +3309,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>42.13445934946279</v>
+        <v>48.22237106169591</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3185,7 +3320,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>41.67550905983958</v>
+        <v>48.20721407730072</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3196,7 +3331,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>41.56363014198367</v>
+        <v>47.37852572501706</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3207,7 +3342,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>41.44879749160769</v>
+        <v>47.29651274057217</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3218,7 +3353,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>41.42332525988141</v>
+        <v>47.29498134246912</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3229,7 +3364,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>41.34490146560898</v>
+        <v>47.177563859932</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3240,7 +3375,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>40.34851134554924</v>
+        <v>46.60475312338765</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3251,7 +3386,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>40.30060846071672</v>
+        <v>46.33959905259878</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3262,7 +3397,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>40.15941016295229</v>
+        <v>46.32082169794116</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3273,7 +3408,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>40.14810502766315</v>
+        <v>46.30026822994765</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3284,7 +3419,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>39.7890052499838</v>
+        <v>46.00747740503827</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3295,7 +3430,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>39.67782325359276</v>
+        <v>45.94644526900551</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3306,7 +3441,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>39.07694637843051</v>
+        <v>45.66159372225893</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3317,7 +3452,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>38.80459600962367</v>
+        <v>45.11128559775064</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3328,7 +3463,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>38.73027849223379</v>
+        <v>44.96090929259208</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3339,7 +3474,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>38.70299022278021</v>
+        <v>44.85203394001532</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3350,7 +3485,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>38.6865547768686</v>
+        <v>44.85203394001532</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3361,7 +3496,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>38.6854254097023</v>
+        <v>44.58869306295103</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3372,7 +3507,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>38.67378452191986</v>
+        <v>43.76771613694335</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3383,7 +3518,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>38.65844452683766</v>
+        <v>43.23400515061823</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3394,7 +3529,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>38.62242442357618</v>
+        <v>43.2193626425327</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3405,7 +3540,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>38.56805286130096</v>
+        <v>43.13457428376195</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3416,7 +3551,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>37.81121061363262</v>
+        <v>43.06567015634473</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3427,7 +3562,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>37.8009086422509</v>
+        <v>43.0579957423566</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3438,7 +3573,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>37.77747803069675</v>
+        <v>42.84117821054969</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3449,7 +3584,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>37.71858715561503</v>
+        <v>42.25796958749419</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3460,7 +3595,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>37.65571455461848</v>
+        <v>41.93029949785017</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3471,7 +3606,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>37.60263790498231</v>
+        <v>41.86751866415973</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3482,7 +3617,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>37.39802826965845</v>
+        <v>41.73802270025818</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3493,7 +3628,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>37.36960067932371</v>
+        <v>41.63894659752093</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3504,7 +3639,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>37.12646352051102</v>
+        <v>41.61375131816153</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3515,7 +3650,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>37.01336536055329</v>
+        <v>41.31837168182764</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3526,7 +3661,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>35.76893929258581</v>
+        <v>41.27500509390135</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3537,7 +3672,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>35.00700403776356</v>
+        <v>41.22911781817885</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3548,7 +3683,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>33.80689406525703</v>
+        <v>41.17006377250074</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3559,7 +3694,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>33.41420397609859</v>
+        <v>41.15049003562802</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3570,7 +3705,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>31.69091190768465</v>
+        <v>40.84478182229246</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3581,7 +3716,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>31.63910331540561</v>
+        <v>40.7433758124054</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -3592,7 +3727,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>31.13629422529257</v>
+        <v>40.7008994122833</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3603,7 +3738,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>30.95352614293741</v>
+        <v>40.07008032582083</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3614,7 +3749,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>29.80565629596652</v>
+        <v>40.04838616304841</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3625,7 +3760,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>29.09337190414277</v>
+        <v>39.61972280697425</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -3636,7 +3771,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>27.45704084186736</v>
+        <v>39.46473853735579</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3647,7 +3782,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>27.07661099285806</v>
+        <v>39.45008805700043</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -3658,7 +3793,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>26.71964948395108</v>
+        <v>39.08244846506255</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3669,7 +3804,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>26.14496453675567</v>
+        <v>39.06351020798184</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -3680,7 +3815,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>25.89705586775113</v>
+        <v>39.06040405654861</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -3691,7 +3826,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>25.89704284236027</v>
+        <v>39.03460560517804</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -3702,7 +3837,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>23.57637307908619</v>
+        <v>38.99031025113009</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -3713,7 +3848,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>23.5167794452924</v>
+        <v>38.97367717776768</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -3724,7 +3859,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>23.39686877120652</v>
+        <v>38.05918075218092</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -3735,7 +3870,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>23.24805972840245</v>
+        <v>37.94937371405712</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -3746,10 +3881,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>22.79798952414447</v>
+        <v>37.83694428591621</v>
       </c>
       <c r="C222">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3757,10 +3892,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>22.78546532637942</v>
+        <v>37.75067749585648</v>
       </c>
       <c r="C223">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3768,10 +3903,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>22.67736990927787</v>
+        <v>37.7273052274213</v>
       </c>
       <c r="C224">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3779,10 +3914,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>22.17169073737879</v>
+        <v>37.65754471537239</v>
       </c>
       <c r="C225">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3790,10 +3925,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>21.18075112702551</v>
+        <v>37.59961095922515</v>
       </c>
       <c r="C226">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3801,10 +3936,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>21.16422673268782</v>
+        <v>37.54737709405953</v>
       </c>
       <c r="C227">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3812,10 +3947,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>20.76847434849169</v>
+        <v>37.3634401531835</v>
       </c>
       <c r="C228">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3823,10 +3958,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>20.65316412283078</v>
+        <v>37.36309798113877</v>
       </c>
       <c r="C229">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3834,10 +3969,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>20.64591975628542</v>
+        <v>37.082749862192</v>
       </c>
       <c r="C230">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3845,10 +3980,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>20.60953345452553</v>
+        <v>36.1559158040625</v>
       </c>
       <c r="C231">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3856,10 +3991,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>20.57228042419032</v>
+        <v>33.45517863752785</v>
       </c>
       <c r="C232">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3867,10 +4002,10 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>20.36179324573678</v>
+        <v>32.66973334388379</v>
       </c>
       <c r="C233">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3878,10 +4013,10 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>20.08707788728407</v>
+        <v>32.63891963116756</v>
       </c>
       <c r="C234">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3889,10 +4024,10 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>20.04187613541525</v>
+        <v>32.18959855903327</v>
       </c>
       <c r="C235">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3900,10 +4035,10 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>20.03368595439641</v>
+        <v>32.12601745258829</v>
       </c>
       <c r="C236">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3911,10 +4046,10 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>18.83043078429191</v>
+        <v>32.04412338653529</v>
       </c>
       <c r="C237">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3922,10 +4057,10 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>18.78255253256653</v>
+        <v>31.97407381723226</v>
       </c>
       <c r="C238">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3933,10 +4068,10 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>18.69484240400545</v>
+        <v>31.92689226424059</v>
       </c>
       <c r="C239">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3944,10 +4079,10 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>18.54916027729407</v>
+        <v>31.9194205852844</v>
       </c>
       <c r="C240">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3955,10 +4090,10 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>18.44163036685395</v>
+        <v>31.79074196169258</v>
       </c>
       <c r="C241">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3966,10 +4101,10 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>18.44163036685395</v>
+        <v>31.78144420578236</v>
       </c>
       <c r="C242">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3977,10 +4112,10 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>18.37632083159035</v>
+        <v>31.71978347890663</v>
       </c>
       <c r="C243">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3988,10 +4123,10 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>18.28651917266727</v>
+        <v>31.69800666197343</v>
       </c>
       <c r="C244">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3999,10 +4134,10 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>18.2784705320009</v>
+        <v>31.49116860894345</v>
       </c>
       <c r="C245">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4010,10 +4145,10 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>18.12066343280579</v>
+        <v>31.37462881903278</v>
       </c>
       <c r="C246">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4021,10 +4156,10 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>18.10795106287095</v>
+        <v>31.04606016554041</v>
       </c>
       <c r="C247">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4032,10 +4167,10 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>17.5603462352232</v>
+        <v>30.57782744950755</v>
       </c>
       <c r="C248">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4043,10 +4178,10 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>17.53189642065023</v>
+        <v>30.50635861620966</v>
       </c>
       <c r="C249">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4054,10 +4189,10 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>17.44481412661706</v>
+        <v>30.48579591182069</v>
       </c>
       <c r="C250">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4065,10 +4200,10 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>16.95874791046484</v>
+        <v>30.34248865220381</v>
       </c>
       <c r="C251">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4076,10 +4211,10 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>16.93099884718036</v>
+        <v>29.89285023716781</v>
       </c>
       <c r="C252">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4087,10 +4222,10 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>16.40187162688349</v>
+        <v>29.81063376584807</v>
       </c>
       <c r="C253">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4098,10 +4233,10 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>16.06921892511737</v>
+        <v>29.2021871139578</v>
       </c>
       <c r="C254">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4109,10 +4244,10 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>15.80155020211693</v>
+        <v>28.6217624628607</v>
       </c>
       <c r="C255">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4120,10 +4255,10 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>15.67291670566946</v>
+        <v>27.17766291680726</v>
       </c>
       <c r="C256">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4131,10 +4266,10 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>15.1571886090787</v>
+        <v>26.82170113409494</v>
       </c>
       <c r="C257">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4142,10 +4277,10 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>15.1571886090787</v>
+        <v>26.22815772050232</v>
       </c>
       <c r="C258">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4153,10 +4288,10 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>13.53082883041235</v>
+        <v>25.48831425814157</v>
       </c>
       <c r="C259">
-        <v>0.00036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4164,10 +4299,10 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>13.21223350322093</v>
+        <v>25.12270802447025</v>
       </c>
       <c r="C260">
-        <v>0.00042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4175,10 +4310,10 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>13.1522372876509</v>
+        <v>24.69025982336054</v>
       </c>
       <c r="C261">
-        <v>0.00044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4186,10 +4321,10 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>13.03681642371084</v>
+        <v>24.02205145862015</v>
       </c>
       <c r="C262">
-        <v>0.00046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4197,10 +4332,10 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>13.01675565071627</v>
+        <v>23.94613274399401</v>
       </c>
       <c r="C263">
-        <v>0.00047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4208,10 +4343,10 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>12.72574988717387</v>
+        <v>23.90341761738093</v>
       </c>
       <c r="C264">
-        <v>0.00054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4219,10 +4354,10 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>12.71626146197032</v>
+        <v>23.76930123804908</v>
       </c>
       <c r="C265">
-        <v>0.00054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4230,10 +4365,10 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>12.46435458266298</v>
+        <v>23.63430615895177</v>
       </c>
       <c r="C266">
-        <v>0.00061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4241,10 +4376,10 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>12.42644012813244</v>
+        <v>23.57453630136382</v>
       </c>
       <c r="C267">
-        <v>0.00062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4252,10 +4387,10 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>12.25067713299425</v>
+        <v>23.53951288942192</v>
       </c>
       <c r="C268">
-        <v>0.00067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4263,10 +4398,10 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>11.55285378425733</v>
+        <v>23.52060352866664</v>
       </c>
       <c r="C269">
-        <v>0.00094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4274,10 +4409,10 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>11.55285378425733</v>
+        <v>23.44314827677665</v>
       </c>
       <c r="C270">
-        <v>0.00094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4285,10 +4420,10 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>11.48666888092183</v>
+        <v>23.41838679259927</v>
       </c>
       <c r="C271">
-        <v>0.0009700000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4296,10 +4431,10 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>11.01742711231224</v>
+        <v>23.09938467448407</v>
       </c>
       <c r="C272">
-        <v>0.00122</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4307,10 +4442,10 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>10.982718749889</v>
+        <v>22.86737466873969</v>
       </c>
       <c r="C273">
-        <v>0.00125</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4318,10 +4453,10 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>10.77671147961252</v>
+        <v>22.76206795989448</v>
       </c>
       <c r="C274">
-        <v>0.00138</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4329,10 +4464,10 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>10.66897956543253</v>
+        <v>22.73447261017547</v>
       </c>
       <c r="C275">
-        <v>0.00145</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4340,10 +4475,10 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>10.17805676229789</v>
+        <v>22.27784457371366</v>
       </c>
       <c r="C276">
-        <v>0.00185</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4351,10 +4486,10 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>10.03957520300752</v>
+        <v>21.48475113296523</v>
       </c>
       <c r="C277">
-        <v>0.00198</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4362,10 +4497,10 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>9.885356611297626</v>
+        <v>20.98529390897011</v>
       </c>
       <c r="C278">
-        <v>0.00214</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4373,10 +4508,10 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>9.711153602226048</v>
+        <v>20.84341267646504</v>
       </c>
       <c r="C279">
-        <v>0.00234</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4384,10 +4519,10 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>9.678103640214836</v>
+        <v>20.84341267646504</v>
       </c>
       <c r="C280">
-        <v>0.00238</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4395,10 +4530,10 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>9.657738347795968</v>
+        <v>19.96490702672566</v>
       </c>
       <c r="C281">
-        <v>0.0024</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4406,10 +4541,10 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>9.6278175705813</v>
+        <v>19.89193032730348</v>
       </c>
       <c r="C282">
-        <v>0.00244</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4417,10 +4552,10 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>9.597668049000449</v>
+        <v>19.76134002862254</v>
       </c>
       <c r="C283">
-        <v>0.00247</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4428,10 +4563,10 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>9.562297661433616</v>
+        <v>19.74764502389633</v>
       </c>
       <c r="C284">
-        <v>0.00252</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4439,10 +4574,10 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>9.554634550701794</v>
+        <v>19.71380101468786</v>
       </c>
       <c r="C285">
-        <v>0.00253</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4450,10 +4585,10 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>9.541982046172203</v>
+        <v>19.03357124017564</v>
       </c>
       <c r="C286">
-        <v>0.00254</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4461,10 +4596,10 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>9.541917850452462</v>
+        <v>18.8341966053154</v>
       </c>
       <c r="C287">
-        <v>0.00254</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4472,10 +4607,10 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>9.541874789620575</v>
+        <v>18.8341966053154</v>
       </c>
       <c r="C288">
-        <v>0.00254</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4483,10 +4618,10 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>9.493126770649056</v>
+        <v>18.6256392893305</v>
       </c>
       <c r="C289">
-        <v>0.00261</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4494,10 +4629,10 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>9.484673081373352</v>
+        <v>18.3510024530778</v>
       </c>
       <c r="C290">
-        <v>0.00262</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4505,10 +4640,10 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>9.447057550794771</v>
+        <v>18.32185425382848</v>
       </c>
       <c r="C291">
-        <v>0.00267</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4516,10 +4651,10 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>9.435741099277866</v>
+        <v>18.29947353888297</v>
       </c>
       <c r="C292">
-        <v>0.00268</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4527,10 +4662,10 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>9.335824487789889</v>
+        <v>18.18599470264262</v>
       </c>
       <c r="C293">
-        <v>0.00282</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4538,10 +4673,10 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>9.290589409110952</v>
+        <v>18.18599470264262</v>
       </c>
       <c r="C294">
-        <v>0.00288</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4549,10 +4684,10 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>9.193135126763673</v>
+        <v>18.06768287583465</v>
       </c>
       <c r="C295">
-        <v>0.00303</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4560,10 +4695,10 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>9.186409891994369</v>
+        <v>18.05238794432628</v>
       </c>
       <c r="C296">
-        <v>0.00304</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4571,10 +4706,10 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>9.124667214967923</v>
+        <v>17.71954008787933</v>
       </c>
       <c r="C297">
-        <v>0.00314</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4582,10 +4717,10 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>8.702034952089976</v>
+        <v>17.61893421149658</v>
       </c>
       <c r="C298">
-        <v>0.00388</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4593,10 +4728,10 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>8.702034952089976</v>
+        <v>17.53639163228292</v>
       </c>
       <c r="C299">
-        <v>0.00388</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4604,10 +4739,10 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>8.529455592121566</v>
+        <v>17.46553092780248</v>
       </c>
       <c r="C300">
-        <v>0.00424</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4615,10 +4750,10 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>8.167191444216332</v>
+        <v>17.23350176254239</v>
       </c>
       <c r="C301">
-        <v>0.0051</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4626,10 +4761,10 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>8.095908888360496</v>
+        <v>17.10746221021548</v>
       </c>
       <c r="C302">
-        <v>0.00529</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4637,10 +4772,10 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>7.910580587568269</v>
+        <v>16.98622700941283</v>
       </c>
       <c r="C303">
-        <v>0.00582</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4648,10 +4783,10 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>7.896881857895277</v>
+        <v>16.96541645637836</v>
       </c>
       <c r="C304">
-        <v>0.00586</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4659,10 +4794,10 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>7.886863082859422</v>
+        <v>16.55891453261859</v>
       </c>
       <c r="C305">
-        <v>0.00589</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4670,10 +4805,10 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>7.860897415799657</v>
+        <v>15.85012483889866</v>
       </c>
       <c r="C306">
-        <v>0.00597</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4681,10 +4816,10 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>7.848356351000458</v>
+        <v>15.56082813530858</v>
       </c>
       <c r="C307">
-        <v>0.00601</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4692,10 +4827,10 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>7.562301087335468</v>
+        <v>15.15444258562285</v>
       </c>
       <c r="C308">
-        <v>0.00697</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4703,10 +4838,10 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>7.51804646658672</v>
+        <v>15.11077889844417</v>
       </c>
       <c r="C309">
-        <v>0.00713</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4714,10 +4849,10 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>7.394696853044236</v>
+        <v>14.92284266743226</v>
       </c>
       <c r="C310">
-        <v>0.0076</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4725,10 +4860,505 @@
         <v>311</v>
       </c>
       <c r="B311">
-        <v>7.312919268918122</v>
+        <v>14.36656556099537</v>
       </c>
       <c r="C311">
-        <v>0.00793</v>
+        <v>0.00025</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>14.20116482266127</v>
+      </c>
+      <c r="C312">
+        <v>0.00028</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>14.20100237446397</v>
+      </c>
+      <c r="C313">
+        <v>0.00028</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>14.20088222261739</v>
+      </c>
+      <c r="C314">
+        <v>0.00028</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>13.98442020850515</v>
+      </c>
+      <c r="C315">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>13.69479082575971</v>
+      </c>
+      <c r="C316">
+        <v>0.00035</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>13.56815417489964</v>
+      </c>
+      <c r="C317">
+        <v>0.00037</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>11.96099505162396</v>
+      </c>
+      <c r="C318">
+        <v>0.00079</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>11.64329915842631</v>
+      </c>
+      <c r="C319">
+        <v>0.0009300000000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>11.3571728207654</v>
+      </c>
+      <c r="C320">
+        <v>0.00106</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>11.29622394763786</v>
+      </c>
+      <c r="C321">
+        <v>0.00109</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>11.21521773289559</v>
+      </c>
+      <c r="C322">
+        <v>0.00114</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>10.95566640573874</v>
+      </c>
+      <c r="C323">
+        <v>0.00129</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>10.14541957279913</v>
+      </c>
+      <c r="C324">
+        <v>0.00192</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>10.02535931958239</v>
+      </c>
+      <c r="C325">
+        <v>0.00204</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>9.857367596968437</v>
+      </c>
+      <c r="C326">
+        <v>0.00221</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>9.626619105102501</v>
+      </c>
+      <c r="C327">
+        <v>0.00248</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>9.588903150301428</v>
+      </c>
+      <c r="C328">
+        <v>0.00253</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>9.268670529170546</v>
+      </c>
+      <c r="C329">
+        <v>0.00297</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>9.191430028098585</v>
+      </c>
+      <c r="C330">
+        <v>0.00308</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>9.148568309401082</v>
+      </c>
+      <c r="C331">
+        <v>0.00315</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>9.100728289504863</v>
+      </c>
+      <c r="C332">
+        <v>0.00323</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>9.013851729647122</v>
+      </c>
+      <c r="C333">
+        <v>0.00337</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>8.968456189651855</v>
+      </c>
+      <c r="C334">
+        <v>0.00345</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>8.960595015201474</v>
+      </c>
+      <c r="C335">
+        <v>0.00346</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>8.832660852136605</v>
+      </c>
+      <c r="C336">
+        <v>0.00369</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>8.825191893139008</v>
+      </c>
+      <c r="C337">
+        <v>0.00371</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>8.627036633170865</v>
+      </c>
+      <c r="C338">
+        <v>0.00409</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>8.521659192710633</v>
+      </c>
+      <c r="C339">
+        <v>0.00432</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>8.483157088831364</v>
+      </c>
+      <c r="C340">
+        <v>0.0044</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>8.419432898371012</v>
+      </c>
+      <c r="C341">
+        <v>0.00455</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>8.346376197450951</v>
+      </c>
+      <c r="C342">
+        <v>0.00472</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>7.640023503581822</v>
+      </c>
+      <c r="C343">
+        <v>0.00678</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>7.589644475426679</v>
+      </c>
+      <c r="C344">
+        <v>0.00695</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>7.558382023699222</v>
+      </c>
+      <c r="C345">
+        <v>0.00707</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>7.541817174580189</v>
+      </c>
+      <c r="C346">
+        <v>0.00713</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>7.246776391331863</v>
+      </c>
+      <c r="C347">
+        <v>0.0083</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>7.101090376170198</v>
+      </c>
+      <c r="C348">
+        <v>0.008959999999999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <v>7.079842298018661</v>
+      </c>
+      <c r="C349">
+        <v>0.00906</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <v>6.997275738438327</v>
+      </c>
+      <c r="C350">
+        <v>0.00945</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <v>6.985981515043872</v>
+      </c>
+      <c r="C351">
+        <v>0.009509999999999999</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <v>6.98192523175169</v>
+      </c>
+      <c r="C352">
+        <v>0.00953</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353">
+        <v>6.965414404382</v>
+      </c>
+      <c r="C353">
+        <v>0.00961</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354">
+        <v>6.964849713053442</v>
+      </c>
+      <c r="C354">
+        <v>0.00962</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355">
+        <v>6.934790201456895</v>
+      </c>
+      <c r="C355">
+        <v>0.009769999999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356">
+        <v>6.898504548977908</v>
+      </c>
+      <c r="C356">
+        <v>0.00996</v>
       </c>
     </row>
   </sheetData>
